--- a/_Documents_TPI/Planification.xlsx
+++ b/_Documents_TPI/Planification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\TPI\_Documents_TPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E41C2-9F68-4E0D-B13B-6BADF832EDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF00FF5-499D-41D8-8598-07242A02C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -504,27 +504,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE9" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -843,784 +843,784 @@
   <sheetData>
     <row r="1" spans="1:252" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="50">
+      <c r="B1" s="49">
         <v>45341</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="51">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50">
         <v>45342</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49">
         <v>45343</v>
       </c>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49">
         <v>45344</v>
       </c>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="50"/>
-      <c r="BY1" s="50"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
-      <c r="CJ1" s="50"/>
-      <c r="CK1" s="50"/>
-      <c r="CL1" s="50">
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="49"/>
+      <c r="CC1" s="49"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="49"/>
+      <c r="CF1" s="49"/>
+      <c r="CG1" s="49"/>
+      <c r="CH1" s="49"/>
+      <c r="CI1" s="49"/>
+      <c r="CJ1" s="49"/>
+      <c r="CK1" s="49"/>
+      <c r="CL1" s="49">
         <v>45345</v>
       </c>
-      <c r="CM1" s="50"/>
-      <c r="CN1" s="50"/>
-      <c r="CO1" s="50"/>
-      <c r="CP1" s="50"/>
-      <c r="CQ1" s="50"/>
-      <c r="CR1" s="50"/>
-      <c r="CS1" s="50"/>
-      <c r="CT1" s="50"/>
-      <c r="CU1" s="50"/>
-      <c r="CV1" s="50"/>
-      <c r="CW1" s="50"/>
-      <c r="CX1" s="50"/>
-      <c r="CY1" s="50"/>
-      <c r="CZ1" s="50"/>
-      <c r="DA1" s="50"/>
-      <c r="DB1" s="50"/>
-      <c r="DC1" s="50"/>
-      <c r="DD1" s="50"/>
-      <c r="DE1" s="50"/>
-      <c r="DF1" s="50"/>
-      <c r="DG1" s="50"/>
-      <c r="DH1" s="50">
+      <c r="CM1" s="49"/>
+      <c r="CN1" s="49"/>
+      <c r="CO1" s="49"/>
+      <c r="CP1" s="49"/>
+      <c r="CQ1" s="49"/>
+      <c r="CR1" s="49"/>
+      <c r="CS1" s="49"/>
+      <c r="CT1" s="49"/>
+      <c r="CU1" s="49"/>
+      <c r="CV1" s="49"/>
+      <c r="CW1" s="49"/>
+      <c r="CX1" s="49"/>
+      <c r="CY1" s="49"/>
+      <c r="CZ1" s="49"/>
+      <c r="DA1" s="49"/>
+      <c r="DB1" s="49"/>
+      <c r="DC1" s="49"/>
+      <c r="DD1" s="49"/>
+      <c r="DE1" s="49"/>
+      <c r="DF1" s="49"/>
+      <c r="DG1" s="49"/>
+      <c r="DH1" s="49">
         <v>45348</v>
       </c>
-      <c r="DI1" s="50"/>
-      <c r="DJ1" s="50"/>
-      <c r="DK1" s="50"/>
-      <c r="DL1" s="50"/>
-      <c r="DM1" s="50"/>
-      <c r="DN1" s="50"/>
-      <c r="DO1" s="50"/>
-      <c r="DP1" s="50"/>
-      <c r="DQ1" s="50"/>
-      <c r="DR1" s="50"/>
-      <c r="DS1" s="50"/>
-      <c r="DT1" s="50"/>
-      <c r="DU1" s="50"/>
-      <c r="DV1" s="50"/>
-      <c r="DW1" s="50"/>
-      <c r="DX1" s="50"/>
-      <c r="DY1" s="50"/>
-      <c r="DZ1" s="50"/>
-      <c r="EA1" s="50"/>
-      <c r="EB1" s="50"/>
-      <c r="EC1" s="50"/>
-      <c r="ED1" s="50">
+      <c r="DI1" s="49"/>
+      <c r="DJ1" s="49"/>
+      <c r="DK1" s="49"/>
+      <c r="DL1" s="49"/>
+      <c r="DM1" s="49"/>
+      <c r="DN1" s="49"/>
+      <c r="DO1" s="49"/>
+      <c r="DP1" s="49"/>
+      <c r="DQ1" s="49"/>
+      <c r="DR1" s="49"/>
+      <c r="DS1" s="49"/>
+      <c r="DT1" s="49"/>
+      <c r="DU1" s="49"/>
+      <c r="DV1" s="49"/>
+      <c r="DW1" s="49"/>
+      <c r="DX1" s="49"/>
+      <c r="DY1" s="49"/>
+      <c r="DZ1" s="49"/>
+      <c r="EA1" s="49"/>
+      <c r="EB1" s="49"/>
+      <c r="EC1" s="49"/>
+      <c r="ED1" s="49">
         <v>45349</v>
       </c>
-      <c r="EE1" s="50"/>
-      <c r="EF1" s="50"/>
-      <c r="EG1" s="50"/>
-      <c r="EH1" s="50"/>
-      <c r="EI1" s="50"/>
-      <c r="EJ1" s="50"/>
-      <c r="EK1" s="50"/>
-      <c r="EL1" s="50"/>
-      <c r="EM1" s="50"/>
-      <c r="EN1" s="50"/>
-      <c r="EO1" s="50"/>
-      <c r="EP1" s="50"/>
-      <c r="EQ1" s="50"/>
-      <c r="ER1" s="50"/>
-      <c r="ES1" s="50"/>
-      <c r="ET1" s="50"/>
-      <c r="EU1" s="50"/>
-      <c r="EV1" s="50"/>
-      <c r="EW1" s="50"/>
-      <c r="EX1" s="50"/>
-      <c r="EY1" s="50"/>
-      <c r="EZ1" s="50">
+      <c r="EE1" s="49"/>
+      <c r="EF1" s="49"/>
+      <c r="EG1" s="49"/>
+      <c r="EH1" s="49"/>
+      <c r="EI1" s="49"/>
+      <c r="EJ1" s="49"/>
+      <c r="EK1" s="49"/>
+      <c r="EL1" s="49"/>
+      <c r="EM1" s="49"/>
+      <c r="EN1" s="49"/>
+      <c r="EO1" s="49"/>
+      <c r="EP1" s="49"/>
+      <c r="EQ1" s="49"/>
+      <c r="ER1" s="49"/>
+      <c r="ES1" s="49"/>
+      <c r="ET1" s="49"/>
+      <c r="EU1" s="49"/>
+      <c r="EV1" s="49"/>
+      <c r="EW1" s="49"/>
+      <c r="EX1" s="49"/>
+      <c r="EY1" s="49"/>
+      <c r="EZ1" s="49">
         <v>45350</v>
       </c>
-      <c r="FA1" s="50"/>
-      <c r="FB1" s="50"/>
-      <c r="FC1" s="50"/>
-      <c r="FD1" s="50"/>
-      <c r="FE1" s="50"/>
-      <c r="FF1" s="50"/>
-      <c r="FG1" s="50"/>
-      <c r="FH1" s="50"/>
-      <c r="FI1" s="50"/>
-      <c r="FJ1" s="50"/>
-      <c r="FK1" s="50"/>
-      <c r="FL1" s="50"/>
-      <c r="FM1" s="50"/>
-      <c r="FN1" s="50"/>
-      <c r="FO1" s="50"/>
-      <c r="FP1" s="50"/>
-      <c r="FQ1" s="50"/>
-      <c r="FR1" s="50"/>
-      <c r="FS1" s="50"/>
-      <c r="FT1" s="50"/>
-      <c r="FU1" s="50"/>
-      <c r="FV1" s="50">
+      <c r="FA1" s="49"/>
+      <c r="FB1" s="49"/>
+      <c r="FC1" s="49"/>
+      <c r="FD1" s="49"/>
+      <c r="FE1" s="49"/>
+      <c r="FF1" s="49"/>
+      <c r="FG1" s="49"/>
+      <c r="FH1" s="49"/>
+      <c r="FI1" s="49"/>
+      <c r="FJ1" s="49"/>
+      <c r="FK1" s="49"/>
+      <c r="FL1" s="49"/>
+      <c r="FM1" s="49"/>
+      <c r="FN1" s="49"/>
+      <c r="FO1" s="49"/>
+      <c r="FP1" s="49"/>
+      <c r="FQ1" s="49"/>
+      <c r="FR1" s="49"/>
+      <c r="FS1" s="49"/>
+      <c r="FT1" s="49"/>
+      <c r="FU1" s="49"/>
+      <c r="FV1" s="49">
         <v>45351</v>
       </c>
-      <c r="FW1" s="50"/>
-      <c r="FX1" s="50"/>
-      <c r="FY1" s="50"/>
-      <c r="FZ1" s="50"/>
-      <c r="GA1" s="50"/>
-      <c r="GB1" s="50"/>
-      <c r="GC1" s="50"/>
-      <c r="GD1" s="50"/>
-      <c r="GE1" s="50"/>
-      <c r="GF1" s="50"/>
-      <c r="GG1" s="50"/>
-      <c r="GH1" s="50"/>
-      <c r="GI1" s="50"/>
-      <c r="GJ1" s="50"/>
-      <c r="GK1" s="50"/>
-      <c r="GL1" s="50"/>
-      <c r="GM1" s="50"/>
-      <c r="GN1" s="50"/>
-      <c r="GO1" s="50"/>
-      <c r="GP1" s="50"/>
-      <c r="GQ1" s="50"/>
-      <c r="GR1" s="50">
+      <c r="FW1" s="49"/>
+      <c r="FX1" s="49"/>
+      <c r="FY1" s="49"/>
+      <c r="FZ1" s="49"/>
+      <c r="GA1" s="49"/>
+      <c r="GB1" s="49"/>
+      <c r="GC1" s="49"/>
+      <c r="GD1" s="49"/>
+      <c r="GE1" s="49"/>
+      <c r="GF1" s="49"/>
+      <c r="GG1" s="49"/>
+      <c r="GH1" s="49"/>
+      <c r="GI1" s="49"/>
+      <c r="GJ1" s="49"/>
+      <c r="GK1" s="49"/>
+      <c r="GL1" s="49"/>
+      <c r="GM1" s="49"/>
+      <c r="GN1" s="49"/>
+      <c r="GO1" s="49"/>
+      <c r="GP1" s="49"/>
+      <c r="GQ1" s="49"/>
+      <c r="GR1" s="49">
         <v>45352</v>
       </c>
-      <c r="GS1" s="50"/>
-      <c r="GT1" s="50"/>
-      <c r="GU1" s="50"/>
-      <c r="GV1" s="50"/>
-      <c r="GW1" s="50"/>
-      <c r="GX1" s="50"/>
-      <c r="GY1" s="50"/>
-      <c r="GZ1" s="50"/>
-      <c r="HA1" s="50"/>
-      <c r="HB1" s="50"/>
-      <c r="HC1" s="50"/>
-      <c r="HD1" s="50"/>
-      <c r="HE1" s="50"/>
-      <c r="HF1" s="50"/>
-      <c r="HG1" s="50"/>
-      <c r="HH1" s="50"/>
-      <c r="HI1" s="50"/>
-      <c r="HJ1" s="50"/>
-      <c r="HK1" s="50"/>
-      <c r="HL1" s="50"/>
-      <c r="HM1" s="50"/>
-      <c r="HN1" s="50">
+      <c r="GS1" s="49"/>
+      <c r="GT1" s="49"/>
+      <c r="GU1" s="49"/>
+      <c r="GV1" s="49"/>
+      <c r="GW1" s="49"/>
+      <c r="GX1" s="49"/>
+      <c r="GY1" s="49"/>
+      <c r="GZ1" s="49"/>
+      <c r="HA1" s="49"/>
+      <c r="HB1" s="49"/>
+      <c r="HC1" s="49"/>
+      <c r="HD1" s="49"/>
+      <c r="HE1" s="49"/>
+      <c r="HF1" s="49"/>
+      <c r="HG1" s="49"/>
+      <c r="HH1" s="49"/>
+      <c r="HI1" s="49"/>
+      <c r="HJ1" s="49"/>
+      <c r="HK1" s="49"/>
+      <c r="HL1" s="49"/>
+      <c r="HM1" s="49"/>
+      <c r="HN1" s="49">
         <v>45355</v>
       </c>
-      <c r="HO1" s="50"/>
-      <c r="HP1" s="50"/>
-      <c r="HQ1" s="50"/>
-      <c r="HR1" s="50"/>
-      <c r="HS1" s="50"/>
-      <c r="HT1" s="50"/>
-      <c r="HU1" s="50"/>
-      <c r="HV1" s="50"/>
-      <c r="HW1" s="50"/>
-      <c r="HX1" s="50"/>
-      <c r="HY1" s="50"/>
-      <c r="HZ1" s="50"/>
-      <c r="IA1" s="50"/>
-      <c r="IB1" s="50"/>
-      <c r="IC1" s="50"/>
-      <c r="ID1" s="50"/>
-      <c r="IE1" s="50"/>
-      <c r="IF1" s="50"/>
-      <c r="IG1" s="50"/>
-      <c r="IH1" s="50"/>
-      <c r="II1" s="50"/>
-      <c r="IJ1" s="50">
+      <c r="HO1" s="49"/>
+      <c r="HP1" s="49"/>
+      <c r="HQ1" s="49"/>
+      <c r="HR1" s="49"/>
+      <c r="HS1" s="49"/>
+      <c r="HT1" s="49"/>
+      <c r="HU1" s="49"/>
+      <c r="HV1" s="49"/>
+      <c r="HW1" s="49"/>
+      <c r="HX1" s="49"/>
+      <c r="HY1" s="49"/>
+      <c r="HZ1" s="49"/>
+      <c r="IA1" s="49"/>
+      <c r="IB1" s="49"/>
+      <c r="IC1" s="49"/>
+      <c r="ID1" s="49"/>
+      <c r="IE1" s="49"/>
+      <c r="IF1" s="49"/>
+      <c r="IG1" s="49"/>
+      <c r="IH1" s="49"/>
+      <c r="II1" s="49"/>
+      <c r="IJ1" s="49">
         <v>45356</v>
       </c>
-      <c r="IK1" s="50"/>
-      <c r="IL1" s="50"/>
-      <c r="IM1" s="50"/>
-      <c r="IN1" s="50"/>
-      <c r="IO1" s="50"/>
-      <c r="IP1" s="50"/>
-      <c r="IQ1" s="50"/>
-      <c r="IR1" s="50"/>
+      <c r="IK1" s="49"/>
+      <c r="IL1" s="49"/>
+      <c r="IM1" s="49"/>
+      <c r="IN1" s="49"/>
+      <c r="IO1" s="49"/>
+      <c r="IP1" s="49"/>
+      <c r="IQ1" s="49"/>
+      <c r="IR1" s="49"/>
     </row>
     <row r="2" spans="1:252" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="48">
+      <c r="B2" s="53">
         <v>7</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51">
         <v>9</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51">
         <v>10</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51">
         <v>11</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51">
         <v>12</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51">
         <v>13</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51">
         <v>14</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51">
         <v>15</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51">
         <v>16</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47">
+      <c r="U2" s="51"/>
+      <c r="V2" s="51">
         <v>17</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="47">
+      <c r="W2" s="52"/>
+      <c r="X2" s="51">
         <v>7</v>
       </c>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51">
         <v>8</v>
       </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47">
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51">
         <v>9</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51">
         <v>10</v>
       </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51">
         <v>11</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47">
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51">
         <v>12</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51">
         <v>13</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47">
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51">
         <v>14</v>
       </c>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47">
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51">
         <v>15</v>
       </c>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47">
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51">
         <v>16</v>
       </c>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47">
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51">
         <v>17</v>
       </c>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="48">
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="53">
         <v>7</v>
       </c>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47">
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51">
         <v>8</v>
       </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47">
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51">
         <v>9</v>
       </c>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47">
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51">
         <v>10</v>
       </c>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47">
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51">
         <v>11</v>
       </c>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47">
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51">
         <v>12</v>
       </c>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47">
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51">
         <v>13</v>
       </c>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47">
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51">
         <v>14</v>
       </c>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47">
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51">
         <v>15</v>
       </c>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47">
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="51">
         <v>16</v>
       </c>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="47">
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51">
         <v>17</v>
       </c>
-      <c r="BO2" s="47"/>
-      <c r="BP2" s="48">
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="53">
         <v>7</v>
       </c>
-      <c r="BQ2" s="47"/>
-      <c r="BR2" s="47">
+      <c r="BQ2" s="51"/>
+      <c r="BR2" s="51">
         <v>8</v>
       </c>
-      <c r="BS2" s="47"/>
-      <c r="BT2" s="47">
+      <c r="BS2" s="51"/>
+      <c r="BT2" s="51">
         <v>9</v>
       </c>
-      <c r="BU2" s="47"/>
-      <c r="BV2" s="47">
+      <c r="BU2" s="51"/>
+      <c r="BV2" s="51">
         <v>10</v>
       </c>
-      <c r="BW2" s="47"/>
-      <c r="BX2" s="47">
+      <c r="BW2" s="51"/>
+      <c r="BX2" s="51">
         <v>11</v>
       </c>
-      <c r="BY2" s="47"/>
-      <c r="BZ2" s="47">
+      <c r="BY2" s="51"/>
+      <c r="BZ2" s="51">
         <v>12</v>
       </c>
-      <c r="CA2" s="47"/>
-      <c r="CB2" s="47">
+      <c r="CA2" s="51"/>
+      <c r="CB2" s="51">
         <v>13</v>
       </c>
-      <c r="CC2" s="47"/>
-      <c r="CD2" s="47">
+      <c r="CC2" s="51"/>
+      <c r="CD2" s="51">
         <v>14</v>
       </c>
-      <c r="CE2" s="47"/>
-      <c r="CF2" s="47">
+      <c r="CE2" s="51"/>
+      <c r="CF2" s="51">
         <v>15</v>
       </c>
-      <c r="CG2" s="47"/>
-      <c r="CH2" s="47">
+      <c r="CG2" s="51"/>
+      <c r="CH2" s="51">
         <v>16</v>
       </c>
-      <c r="CI2" s="47"/>
-      <c r="CJ2" s="47">
+      <c r="CI2" s="51"/>
+      <c r="CJ2" s="51">
         <v>17</v>
       </c>
-      <c r="CK2" s="47"/>
-      <c r="CL2" s="48">
+      <c r="CK2" s="51"/>
+      <c r="CL2" s="53">
         <v>7</v>
       </c>
-      <c r="CM2" s="47"/>
-      <c r="CN2" s="47">
+      <c r="CM2" s="51"/>
+      <c r="CN2" s="51">
         <v>8</v>
       </c>
-      <c r="CO2" s="47"/>
-      <c r="CP2" s="47">
+      <c r="CO2" s="51"/>
+      <c r="CP2" s="51">
         <v>9</v>
       </c>
-      <c r="CQ2" s="47"/>
-      <c r="CR2" s="47">
+      <c r="CQ2" s="51"/>
+      <c r="CR2" s="51">
         <v>10</v>
       </c>
-      <c r="CS2" s="47"/>
-      <c r="CT2" s="47">
+      <c r="CS2" s="51"/>
+      <c r="CT2" s="51">
         <v>11</v>
       </c>
-      <c r="CU2" s="47"/>
-      <c r="CV2" s="47">
+      <c r="CU2" s="51"/>
+      <c r="CV2" s="51">
         <v>12</v>
       </c>
-      <c r="CW2" s="47"/>
-      <c r="CX2" s="47">
+      <c r="CW2" s="51"/>
+      <c r="CX2" s="51">
         <v>13</v>
       </c>
-      <c r="CY2" s="47"/>
-      <c r="CZ2" s="47">
+      <c r="CY2" s="51"/>
+      <c r="CZ2" s="51">
         <v>14</v>
       </c>
-      <c r="DA2" s="47"/>
-      <c r="DB2" s="47">
+      <c r="DA2" s="51"/>
+      <c r="DB2" s="51">
         <v>15</v>
       </c>
-      <c r="DC2" s="47"/>
-      <c r="DD2" s="47">
+      <c r="DC2" s="51"/>
+      <c r="DD2" s="51">
         <v>16</v>
       </c>
-      <c r="DE2" s="47"/>
-      <c r="DF2" s="47">
+      <c r="DE2" s="51"/>
+      <c r="DF2" s="51">
         <v>17</v>
       </c>
-      <c r="DG2" s="47"/>
-      <c r="DH2" s="48">
+      <c r="DG2" s="51"/>
+      <c r="DH2" s="53">
         <v>7</v>
       </c>
-      <c r="DI2" s="47"/>
-      <c r="DJ2" s="47">
+      <c r="DI2" s="51"/>
+      <c r="DJ2" s="51">
         <v>8</v>
       </c>
-      <c r="DK2" s="47"/>
-      <c r="DL2" s="47">
+      <c r="DK2" s="51"/>
+      <c r="DL2" s="51">
         <v>9</v>
       </c>
-      <c r="DM2" s="47"/>
-      <c r="DN2" s="47">
+      <c r="DM2" s="51"/>
+      <c r="DN2" s="51">
         <v>10</v>
       </c>
-      <c r="DO2" s="47"/>
-      <c r="DP2" s="47">
+      <c r="DO2" s="51"/>
+      <c r="DP2" s="51">
         <v>11</v>
       </c>
-      <c r="DQ2" s="47"/>
-      <c r="DR2" s="47">
+      <c r="DQ2" s="51"/>
+      <c r="DR2" s="51">
         <v>12</v>
       </c>
-      <c r="DS2" s="47"/>
-      <c r="DT2" s="47">
+      <c r="DS2" s="51"/>
+      <c r="DT2" s="51">
         <v>13</v>
       </c>
-      <c r="DU2" s="47"/>
-      <c r="DV2" s="47">
+      <c r="DU2" s="51"/>
+      <c r="DV2" s="51">
         <v>14</v>
       </c>
-      <c r="DW2" s="47"/>
-      <c r="DX2" s="47">
+      <c r="DW2" s="51"/>
+      <c r="DX2" s="51">
         <v>15</v>
       </c>
-      <c r="DY2" s="47"/>
-      <c r="DZ2" s="47">
+      <c r="DY2" s="51"/>
+      <c r="DZ2" s="51">
         <v>16</v>
       </c>
-      <c r="EA2" s="47"/>
-      <c r="EB2" s="47">
+      <c r="EA2" s="51"/>
+      <c r="EB2" s="51">
         <v>17</v>
       </c>
-      <c r="EC2" s="47"/>
-      <c r="ED2" s="48">
+      <c r="EC2" s="51"/>
+      <c r="ED2" s="53">
         <v>7</v>
       </c>
-      <c r="EE2" s="47"/>
-      <c r="EF2" s="47">
+      <c r="EE2" s="51"/>
+      <c r="EF2" s="51">
         <v>8</v>
       </c>
-      <c r="EG2" s="47"/>
-      <c r="EH2" s="47">
+      <c r="EG2" s="51"/>
+      <c r="EH2" s="51">
         <v>9</v>
       </c>
-      <c r="EI2" s="47"/>
-      <c r="EJ2" s="47">
+      <c r="EI2" s="51"/>
+      <c r="EJ2" s="51">
         <v>10</v>
       </c>
-      <c r="EK2" s="47"/>
-      <c r="EL2" s="47">
+      <c r="EK2" s="51"/>
+      <c r="EL2" s="51">
         <v>11</v>
       </c>
-      <c r="EM2" s="47"/>
-      <c r="EN2" s="47">
+      <c r="EM2" s="51"/>
+      <c r="EN2" s="51">
         <v>12</v>
       </c>
-      <c r="EO2" s="47"/>
-      <c r="EP2" s="47">
+      <c r="EO2" s="51"/>
+      <c r="EP2" s="51">
         <v>13</v>
       </c>
-      <c r="EQ2" s="47"/>
-      <c r="ER2" s="47">
+      <c r="EQ2" s="51"/>
+      <c r="ER2" s="51">
         <v>14</v>
       </c>
-      <c r="ES2" s="47"/>
-      <c r="ET2" s="47">
+      <c r="ES2" s="51"/>
+      <c r="ET2" s="51">
         <v>15</v>
       </c>
-      <c r="EU2" s="47"/>
-      <c r="EV2" s="47">
+      <c r="EU2" s="51"/>
+      <c r="EV2" s="51">
         <v>16</v>
       </c>
-      <c r="EW2" s="47"/>
-      <c r="EX2" s="47">
+      <c r="EW2" s="51"/>
+      <c r="EX2" s="51">
         <v>17</v>
       </c>
-      <c r="EY2" s="47"/>
-      <c r="EZ2" s="48">
+      <c r="EY2" s="51"/>
+      <c r="EZ2" s="53">
         <v>7</v>
       </c>
-      <c r="FA2" s="47"/>
-      <c r="FB2" s="47">
+      <c r="FA2" s="51"/>
+      <c r="FB2" s="51">
         <v>8</v>
       </c>
-      <c r="FC2" s="47"/>
-      <c r="FD2" s="47">
+      <c r="FC2" s="51"/>
+      <c r="FD2" s="51">
         <v>9</v>
       </c>
-      <c r="FE2" s="47"/>
-      <c r="FF2" s="47">
+      <c r="FE2" s="51"/>
+      <c r="FF2" s="51">
         <v>10</v>
       </c>
-      <c r="FG2" s="47"/>
-      <c r="FH2" s="47">
+      <c r="FG2" s="51"/>
+      <c r="FH2" s="51">
         <v>11</v>
       </c>
-      <c r="FI2" s="47"/>
-      <c r="FJ2" s="47">
+      <c r="FI2" s="51"/>
+      <c r="FJ2" s="51">
         <v>12</v>
       </c>
-      <c r="FK2" s="47"/>
-      <c r="FL2" s="47">
+      <c r="FK2" s="51"/>
+      <c r="FL2" s="51">
         <v>13</v>
       </c>
-      <c r="FM2" s="47"/>
-      <c r="FN2" s="47">
+      <c r="FM2" s="51"/>
+      <c r="FN2" s="51">
         <v>14</v>
       </c>
-      <c r="FO2" s="47"/>
-      <c r="FP2" s="47">
+      <c r="FO2" s="51"/>
+      <c r="FP2" s="51">
         <v>15</v>
       </c>
-      <c r="FQ2" s="47"/>
-      <c r="FR2" s="47">
+      <c r="FQ2" s="51"/>
+      <c r="FR2" s="51">
         <v>16</v>
       </c>
-      <c r="FS2" s="47"/>
-      <c r="FT2" s="47">
+      <c r="FS2" s="51"/>
+      <c r="FT2" s="51">
         <v>17</v>
       </c>
-      <c r="FU2" s="47"/>
-      <c r="FV2" s="48">
+      <c r="FU2" s="51"/>
+      <c r="FV2" s="53">
         <v>7</v>
       </c>
-      <c r="FW2" s="47"/>
-      <c r="FX2" s="47">
+      <c r="FW2" s="51"/>
+      <c r="FX2" s="51">
         <v>8</v>
       </c>
-      <c r="FY2" s="47"/>
-      <c r="FZ2" s="47">
+      <c r="FY2" s="51"/>
+      <c r="FZ2" s="51">
         <v>9</v>
       </c>
-      <c r="GA2" s="47"/>
-      <c r="GB2" s="47">
+      <c r="GA2" s="51"/>
+      <c r="GB2" s="51">
         <v>10</v>
       </c>
-      <c r="GC2" s="47"/>
-      <c r="GD2" s="47">
+      <c r="GC2" s="51"/>
+      <c r="GD2" s="51">
         <v>11</v>
       </c>
-      <c r="GE2" s="47"/>
-      <c r="GF2" s="47">
+      <c r="GE2" s="51"/>
+      <c r="GF2" s="51">
         <v>12</v>
       </c>
-      <c r="GG2" s="47"/>
-      <c r="GH2" s="47">
+      <c r="GG2" s="51"/>
+      <c r="GH2" s="51">
         <v>13</v>
       </c>
-      <c r="GI2" s="47"/>
-      <c r="GJ2" s="47">
+      <c r="GI2" s="51"/>
+      <c r="GJ2" s="51">
         <v>14</v>
       </c>
-      <c r="GK2" s="47"/>
-      <c r="GL2" s="47">
+      <c r="GK2" s="51"/>
+      <c r="GL2" s="51">
         <v>15</v>
       </c>
-      <c r="GM2" s="47"/>
-      <c r="GN2" s="47">
+      <c r="GM2" s="51"/>
+      <c r="GN2" s="51">
         <v>16</v>
       </c>
-      <c r="GO2" s="47"/>
-      <c r="GP2" s="47">
+      <c r="GO2" s="51"/>
+      <c r="GP2" s="51">
         <v>17</v>
       </c>
-      <c r="GQ2" s="47"/>
-      <c r="GR2" s="48">
+      <c r="GQ2" s="51"/>
+      <c r="GR2" s="53">
         <v>7</v>
       </c>
-      <c r="GS2" s="47"/>
-      <c r="GT2" s="47">
+      <c r="GS2" s="51"/>
+      <c r="GT2" s="51">
         <v>8</v>
       </c>
-      <c r="GU2" s="47"/>
-      <c r="GV2" s="47">
+      <c r="GU2" s="51"/>
+      <c r="GV2" s="51">
         <v>9</v>
       </c>
-      <c r="GW2" s="47"/>
-      <c r="GX2" s="47">
+      <c r="GW2" s="51"/>
+      <c r="GX2" s="51">
         <v>10</v>
       </c>
-      <c r="GY2" s="47"/>
-      <c r="GZ2" s="47">
+      <c r="GY2" s="51"/>
+      <c r="GZ2" s="51">
         <v>11</v>
       </c>
-      <c r="HA2" s="47"/>
-      <c r="HB2" s="47">
+      <c r="HA2" s="51"/>
+      <c r="HB2" s="51">
         <v>12</v>
       </c>
-      <c r="HC2" s="47"/>
-      <c r="HD2" s="47">
+      <c r="HC2" s="51"/>
+      <c r="HD2" s="51">
         <v>13</v>
       </c>
-      <c r="HE2" s="47"/>
-      <c r="HF2" s="47">
+      <c r="HE2" s="51"/>
+      <c r="HF2" s="51">
         <v>14</v>
       </c>
-      <c r="HG2" s="47"/>
-      <c r="HH2" s="47">
+      <c r="HG2" s="51"/>
+      <c r="HH2" s="51">
         <v>15</v>
       </c>
-      <c r="HI2" s="47"/>
-      <c r="HJ2" s="47">
+      <c r="HI2" s="51"/>
+      <c r="HJ2" s="51">
         <v>16</v>
       </c>
-      <c r="HK2" s="47"/>
-      <c r="HL2" s="47">
+      <c r="HK2" s="51"/>
+      <c r="HL2" s="51">
         <v>17</v>
       </c>
-      <c r="HM2" s="47"/>
-      <c r="HN2" s="48">
+      <c r="HM2" s="51"/>
+      <c r="HN2" s="53">
         <v>7</v>
       </c>
-      <c r="HO2" s="47"/>
-      <c r="HP2" s="47">
+      <c r="HO2" s="51"/>
+      <c r="HP2" s="51">
         <v>8</v>
       </c>
-      <c r="HQ2" s="47"/>
-      <c r="HR2" s="47">
+      <c r="HQ2" s="51"/>
+      <c r="HR2" s="51">
         <v>9</v>
       </c>
-      <c r="HS2" s="47"/>
-      <c r="HT2" s="47">
+      <c r="HS2" s="51"/>
+      <c r="HT2" s="51">
         <v>10</v>
       </c>
-      <c r="HU2" s="47"/>
-      <c r="HV2" s="47">
+      <c r="HU2" s="51"/>
+      <c r="HV2" s="51">
         <v>11</v>
       </c>
-      <c r="HW2" s="47"/>
-      <c r="HX2" s="47">
+      <c r="HW2" s="51"/>
+      <c r="HX2" s="51">
         <v>12</v>
       </c>
-      <c r="HY2" s="47"/>
-      <c r="HZ2" s="47">
+      <c r="HY2" s="51"/>
+      <c r="HZ2" s="51">
         <v>13</v>
       </c>
-      <c r="IA2" s="47"/>
-      <c r="IB2" s="47">
+      <c r="IA2" s="51"/>
+      <c r="IB2" s="51">
         <v>14</v>
       </c>
-      <c r="IC2" s="47"/>
-      <c r="ID2" s="47">
+      <c r="IC2" s="51"/>
+      <c r="ID2" s="51">
         <v>15</v>
       </c>
-      <c r="IE2" s="47"/>
-      <c r="IF2" s="47">
+      <c r="IE2" s="51"/>
+      <c r="IF2" s="51">
         <v>16</v>
       </c>
-      <c r="IG2" s="47"/>
-      <c r="IH2" s="47">
+      <c r="IG2" s="51"/>
+      <c r="IH2" s="51">
         <v>17</v>
       </c>
-      <c r="II2" s="47"/>
-      <c r="IJ2" s="48">
+      <c r="II2" s="51"/>
+      <c r="IJ2" s="53">
         <v>7</v>
       </c>
-      <c r="IK2" s="47"/>
-      <c r="IL2" s="47">
+      <c r="IK2" s="51"/>
+      <c r="IL2" s="51">
         <v>8</v>
       </c>
-      <c r="IM2" s="47"/>
-      <c r="IN2" s="47">
+      <c r="IM2" s="51"/>
+      <c r="IN2" s="51">
         <v>9</v>
       </c>
-      <c r="IO2" s="47"/>
-      <c r="IP2" s="47">
+      <c r="IO2" s="51"/>
+      <c r="IP2" s="51">
         <v>10</v>
       </c>
-      <c r="IQ2" s="49"/>
+      <c r="IQ2" s="52"/>
       <c r="IR2" s="4"/>
     </row>
     <row r="3" spans="1:252" x14ac:dyDescent="0.35">
@@ -3921,8 +3921,8 @@
       <c r="CU13" s="34"/>
       <c r="CV13" s="7"/>
       <c r="CW13" s="7"/>
-      <c r="CX13" s="52"/>
-      <c r="CY13" s="52"/>
+      <c r="CX13" s="46"/>
+      <c r="CY13" s="46"/>
       <c r="CZ13" s="8"/>
       <c r="DA13" s="8"/>
       <c r="DB13" s="8"/>
@@ -4188,8 +4188,8 @@
       <c r="DF14" s="34"/>
       <c r="DG14" s="9"/>
       <c r="DH14" s="7"/>
-      <c r="DI14" s="53"/>
-      <c r="DJ14" s="53"/>
+      <c r="DI14" s="47"/>
+      <c r="DJ14" s="47"/>
       <c r="DK14" s="8"/>
       <c r="DL14" s="8"/>
       <c r="DM14" s="7"/>
@@ -5507,9 +5507,9 @@
       <c r="ES19" s="8"/>
       <c r="ET19" s="8"/>
       <c r="EU19" s="7"/>
-      <c r="EV19" s="52"/>
-      <c r="EW19" s="52"/>
-      <c r="EX19" s="52"/>
+      <c r="EV19" s="46"/>
+      <c r="EW19" s="46"/>
+      <c r="EX19" s="46"/>
       <c r="EY19" s="9"/>
       <c r="EZ19" s="7"/>
       <c r="FA19" s="34"/>
@@ -9418,7 +9418,9 @@
       <c r="FQ34" s="16"/>
       <c r="FR34" s="17"/>
       <c r="FS34" s="17"/>
-      <c r="FT34" s="17"/>
+      <c r="FT34" s="14">
+        <v>1</v>
+      </c>
       <c r="FU34" s="16"/>
       <c r="FV34" s="13"/>
       <c r="FW34" s="17"/>
@@ -9436,7 +9438,9 @@
       <c r="GI34" s="17"/>
       <c r="GJ34" s="17"/>
       <c r="GK34" s="17"/>
-      <c r="GL34" s="17"/>
+      <c r="GL34" s="14">
+        <v>1</v>
+      </c>
       <c r="GM34" s="16"/>
       <c r="GN34" s="17"/>
       <c r="GO34" s="17"/>
@@ -9492,12 +9496,12 @@
       <c r="IM34" s="17"/>
       <c r="IN34" s="17"/>
       <c r="IO34" s="44"/>
-      <c r="IP34" s="46">
+      <c r="IP34" s="54">
         <f>SUM(B34:IN34)/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="IQ34" s="46"/>
-      <c r="IR34" s="46"/>
+        <v>13.5</v>
+      </c>
+      <c r="IQ34" s="54"/>
+      <c r="IR34" s="54"/>
       <c r="IS34" s="33" t="s">
         <v>26</v>
       </c>
@@ -9826,12 +9830,12 @@
       <c r="IM35" s="17"/>
       <c r="IN35" s="17"/>
       <c r="IO35" s="32"/>
-      <c r="IP35" s="46">
+      <c r="IP35" s="54">
         <f t="shared" ref="IP35:IP37" si="0">SUM(B35:IN35)/2</f>
         <v>18</v>
       </c>
-      <c r="IQ35" s="46"/>
-      <c r="IR35" s="46"/>
+      <c r="IQ35" s="54"/>
+      <c r="IR35" s="54"/>
       <c r="IS35" s="12" t="s">
         <v>27</v>
       </c>
@@ -10081,48 +10085,100 @@
       <c r="EX36" s="17"/>
       <c r="EY36" s="16"/>
       <c r="EZ36" s="16"/>
-      <c r="FA36" s="17"/>
-      <c r="FB36" s="17"/>
-      <c r="FC36" s="17"/>
-      <c r="FD36" s="17"/>
+      <c r="FA36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FB36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FC36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FD36" s="14">
+        <v>1</v>
+      </c>
       <c r="FE36" s="16"/>
-      <c r="FF36" s="17"/>
-      <c r="FG36" s="17"/>
-      <c r="FH36" s="17"/>
-      <c r="FI36" s="17"/>
+      <c r="FF36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FG36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FH36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FI36" s="14">
+        <v>1</v>
+      </c>
       <c r="FJ36" s="16"/>
       <c r="FK36" s="16"/>
       <c r="FL36" s="17"/>
-      <c r="FM36" s="17"/>
-      <c r="FN36" s="17"/>
-      <c r="FO36" s="17"/>
-      <c r="FP36" s="17"/>
+      <c r="FM36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FN36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FO36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FP36" s="14">
+        <v>1</v>
+      </c>
       <c r="FQ36" s="16"/>
       <c r="FR36" s="17"/>
-      <c r="FS36" s="17"/>
+      <c r="FS36" s="14">
+        <v>1</v>
+      </c>
       <c r="FT36" s="17"/>
       <c r="FU36" s="16"/>
       <c r="FV36" s="13"/>
-      <c r="FW36" s="17"/>
-      <c r="FX36" s="17"/>
-      <c r="FY36" s="17"/>
-      <c r="FZ36" s="17"/>
+      <c r="FW36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FX36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FY36" s="14">
+        <v>1</v>
+      </c>
+      <c r="FZ36" s="14">
+        <v>1</v>
+      </c>
       <c r="GA36" s="16"/>
       <c r="GB36" s="17"/>
       <c r="GC36" s="17"/>
-      <c r="GD36" s="17"/>
-      <c r="GE36" s="17"/>
+      <c r="GD36" s="14">
+        <v>1</v>
+      </c>
+      <c r="GE36" s="14">
+        <v>1</v>
+      </c>
       <c r="GF36" s="16"/>
       <c r="GG36" s="16"/>
-      <c r="GH36" s="17"/>
-      <c r="GI36" s="17"/>
-      <c r="GJ36" s="17"/>
-      <c r="GK36" s="17"/>
+      <c r="GH36" s="14">
+        <v>1</v>
+      </c>
+      <c r="GI36" s="14">
+        <v>1</v>
+      </c>
+      <c r="GJ36" s="14">
+        <v>1</v>
+      </c>
+      <c r="GK36" s="14">
+        <v>1</v>
+      </c>
       <c r="GL36" s="17"/>
       <c r="GM36" s="16"/>
-      <c r="GN36" s="17"/>
-      <c r="GO36" s="17"/>
-      <c r="GP36" s="17"/>
+      <c r="GN36" s="14">
+        <v>1</v>
+      </c>
+      <c r="GO36" s="14">
+        <v>1</v>
+      </c>
+      <c r="GP36" s="14">
+        <v>1</v>
+      </c>
       <c r="GQ36" s="16"/>
       <c r="GR36" s="16"/>
       <c r="GS36" s="17"/>
@@ -10174,12 +10230,12 @@
       <c r="IM36" s="17"/>
       <c r="IN36" s="17"/>
       <c r="IO36" s="32"/>
-      <c r="IP36" s="46">
+      <c r="IP36" s="54">
         <f t="shared" si="0"/>
-        <v>21.5</v>
-      </c>
-      <c r="IQ36" s="46"/>
-      <c r="IR36" s="46"/>
+        <v>34.5</v>
+      </c>
+      <c r="IQ36" s="54"/>
+      <c r="IR36" s="54"/>
       <c r="IS36" s="12" t="s">
         <v>28</v>
       </c>
@@ -10273,7 +10329,7 @@
       <c r="CF37" s="37"/>
       <c r="CG37" s="38"/>
       <c r="CH37" s="37"/>
-      <c r="CI37" s="54">
+      <c r="CI37" s="48">
         <v>1</v>
       </c>
       <c r="CJ37" s="37"/>
@@ -10370,13 +10426,17 @@
       <c r="FI37" s="37"/>
       <c r="FJ37" s="38"/>
       <c r="FK37" s="38"/>
-      <c r="FL37" s="37"/>
+      <c r="FL37" s="14">
+        <v>1</v>
+      </c>
       <c r="FM37" s="37"/>
       <c r="FN37" s="37"/>
       <c r="FO37" s="37"/>
       <c r="FP37" s="37"/>
       <c r="FQ37" s="38"/>
-      <c r="FR37" s="37"/>
+      <c r="FR37" s="14">
+        <v>1</v>
+      </c>
       <c r="FS37" s="37"/>
       <c r="FT37" s="37"/>
       <c r="FU37" s="24"/>
@@ -10386,8 +10446,12 @@
       <c r="FY37" s="37"/>
       <c r="FZ37" s="37"/>
       <c r="GA37" s="38"/>
-      <c r="GB37" s="37"/>
-      <c r="GC37" s="37"/>
+      <c r="GB37" s="14">
+        <v>1</v>
+      </c>
+      <c r="GC37" s="14">
+        <v>1</v>
+      </c>
       <c r="GD37" s="37"/>
       <c r="GE37" s="37"/>
       <c r="GF37" s="38"/>
@@ -10452,18 +10516,147 @@
       <c r="IM37" s="37"/>
       <c r="IN37" s="37"/>
       <c r="IO37" s="40"/>
-      <c r="IP37" s="46">
+      <c r="IP37" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="IQ37" s="46"/>
-      <c r="IR37" s="46"/>
+        <v>6</v>
+      </c>
+      <c r="IQ37" s="54"/>
+      <c r="IR37" s="54"/>
       <c r="IS37" s="21" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="IP35:IR35"/>
+    <mergeCell ref="IP36:IR36"/>
+    <mergeCell ref="IP37:IR37"/>
+    <mergeCell ref="IH2:II2"/>
+    <mergeCell ref="IJ2:IK2"/>
+    <mergeCell ref="IL2:IM2"/>
+    <mergeCell ref="IN2:IO2"/>
+    <mergeCell ref="IP2:IQ2"/>
+    <mergeCell ref="IP34:IR34"/>
+    <mergeCell ref="HV2:HW2"/>
+    <mergeCell ref="HX2:HY2"/>
+    <mergeCell ref="HZ2:IA2"/>
+    <mergeCell ref="IB2:IC2"/>
+    <mergeCell ref="ID2:IE2"/>
+    <mergeCell ref="IF2:IG2"/>
+    <mergeCell ref="HJ2:HK2"/>
+    <mergeCell ref="HL2:HM2"/>
+    <mergeCell ref="HN2:HO2"/>
+    <mergeCell ref="HP2:HQ2"/>
+    <mergeCell ref="HR2:HS2"/>
+    <mergeCell ref="HT2:HU2"/>
+    <mergeCell ref="GX2:GY2"/>
+    <mergeCell ref="GZ2:HA2"/>
+    <mergeCell ref="HB2:HC2"/>
+    <mergeCell ref="HD2:HE2"/>
+    <mergeCell ref="HF2:HG2"/>
+    <mergeCell ref="HH2:HI2"/>
+    <mergeCell ref="GL2:GM2"/>
+    <mergeCell ref="GN2:GO2"/>
+    <mergeCell ref="GP2:GQ2"/>
+    <mergeCell ref="GR2:GS2"/>
+    <mergeCell ref="GT2:GU2"/>
+    <mergeCell ref="GV2:GW2"/>
+    <mergeCell ref="FZ2:GA2"/>
+    <mergeCell ref="GB2:GC2"/>
+    <mergeCell ref="GD2:GE2"/>
+    <mergeCell ref="GF2:GG2"/>
+    <mergeCell ref="GH2:GI2"/>
+    <mergeCell ref="GJ2:GK2"/>
+    <mergeCell ref="FN2:FO2"/>
+    <mergeCell ref="FP2:FQ2"/>
+    <mergeCell ref="FR2:FS2"/>
+    <mergeCell ref="FT2:FU2"/>
+    <mergeCell ref="FV2:FW2"/>
+    <mergeCell ref="FX2:FY2"/>
+    <mergeCell ref="FB2:FC2"/>
+    <mergeCell ref="FD2:FE2"/>
+    <mergeCell ref="FF2:FG2"/>
+    <mergeCell ref="FH2:FI2"/>
+    <mergeCell ref="FJ2:FK2"/>
+    <mergeCell ref="FL2:FM2"/>
+    <mergeCell ref="EP2:EQ2"/>
+    <mergeCell ref="ER2:ES2"/>
+    <mergeCell ref="ET2:EU2"/>
+    <mergeCell ref="EV2:EW2"/>
+    <mergeCell ref="EX2:EY2"/>
+    <mergeCell ref="EZ2:FA2"/>
+    <mergeCell ref="ED2:EE2"/>
+    <mergeCell ref="EF2:EG2"/>
+    <mergeCell ref="EH2:EI2"/>
+    <mergeCell ref="EJ2:EK2"/>
+    <mergeCell ref="EL2:EM2"/>
+    <mergeCell ref="EN2:EO2"/>
+    <mergeCell ref="DR2:DS2"/>
+    <mergeCell ref="DT2:DU2"/>
+    <mergeCell ref="DV2:DW2"/>
+    <mergeCell ref="DX2:DY2"/>
+    <mergeCell ref="DZ2:EA2"/>
+    <mergeCell ref="EB2:EC2"/>
+    <mergeCell ref="DF2:DG2"/>
+    <mergeCell ref="DH2:DI2"/>
+    <mergeCell ref="DJ2:DK2"/>
+    <mergeCell ref="DL2:DM2"/>
+    <mergeCell ref="DN2:DO2"/>
+    <mergeCell ref="DP2:DQ2"/>
+    <mergeCell ref="CT2:CU2"/>
+    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="CX2:CY2"/>
+    <mergeCell ref="CZ2:DA2"/>
+    <mergeCell ref="DB2:DC2"/>
+    <mergeCell ref="DD2:DE2"/>
+    <mergeCell ref="CH2:CI2"/>
+    <mergeCell ref="CJ2:CK2"/>
+    <mergeCell ref="CL2:CM2"/>
+    <mergeCell ref="CN2:CO2"/>
+    <mergeCell ref="CP2:CQ2"/>
+    <mergeCell ref="CR2:CS2"/>
+    <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CB2:CC2"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="ED1:EY1"/>
     <mergeCell ref="EZ1:FU1"/>
     <mergeCell ref="FV1:GQ1"/>
@@ -10476,135 +10669,6 @@
     <mergeCell ref="BP1:CK1"/>
     <mergeCell ref="CL1:DG1"/>
     <mergeCell ref="DH1:EC1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BS2"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="CH2:CI2"/>
-    <mergeCell ref="CJ2:CK2"/>
-    <mergeCell ref="CL2:CM2"/>
-    <mergeCell ref="CN2:CO2"/>
-    <mergeCell ref="CP2:CQ2"/>
-    <mergeCell ref="CR2:CS2"/>
-    <mergeCell ref="BV2:BW2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CB2:CC2"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="DF2:DG2"/>
-    <mergeCell ref="DH2:DI2"/>
-    <mergeCell ref="DJ2:DK2"/>
-    <mergeCell ref="DL2:DM2"/>
-    <mergeCell ref="DN2:DO2"/>
-    <mergeCell ref="DP2:DQ2"/>
-    <mergeCell ref="CT2:CU2"/>
-    <mergeCell ref="CV2:CW2"/>
-    <mergeCell ref="CX2:CY2"/>
-    <mergeCell ref="CZ2:DA2"/>
-    <mergeCell ref="DB2:DC2"/>
-    <mergeCell ref="DD2:DE2"/>
-    <mergeCell ref="ED2:EE2"/>
-    <mergeCell ref="EF2:EG2"/>
-    <mergeCell ref="EH2:EI2"/>
-    <mergeCell ref="EJ2:EK2"/>
-    <mergeCell ref="EL2:EM2"/>
-    <mergeCell ref="EN2:EO2"/>
-    <mergeCell ref="DR2:DS2"/>
-    <mergeCell ref="DT2:DU2"/>
-    <mergeCell ref="DV2:DW2"/>
-    <mergeCell ref="DX2:DY2"/>
-    <mergeCell ref="DZ2:EA2"/>
-    <mergeCell ref="EB2:EC2"/>
-    <mergeCell ref="FB2:FC2"/>
-    <mergeCell ref="FD2:FE2"/>
-    <mergeCell ref="FF2:FG2"/>
-    <mergeCell ref="FH2:FI2"/>
-    <mergeCell ref="FJ2:FK2"/>
-    <mergeCell ref="FL2:FM2"/>
-    <mergeCell ref="EP2:EQ2"/>
-    <mergeCell ref="ER2:ES2"/>
-    <mergeCell ref="ET2:EU2"/>
-    <mergeCell ref="EV2:EW2"/>
-    <mergeCell ref="EX2:EY2"/>
-    <mergeCell ref="EZ2:FA2"/>
-    <mergeCell ref="FZ2:GA2"/>
-    <mergeCell ref="GB2:GC2"/>
-    <mergeCell ref="GD2:GE2"/>
-    <mergeCell ref="GF2:GG2"/>
-    <mergeCell ref="GH2:GI2"/>
-    <mergeCell ref="GJ2:GK2"/>
-    <mergeCell ref="FN2:FO2"/>
-    <mergeCell ref="FP2:FQ2"/>
-    <mergeCell ref="FR2:FS2"/>
-    <mergeCell ref="FT2:FU2"/>
-    <mergeCell ref="FV2:FW2"/>
-    <mergeCell ref="FX2:FY2"/>
-    <mergeCell ref="GX2:GY2"/>
-    <mergeCell ref="GZ2:HA2"/>
-    <mergeCell ref="HB2:HC2"/>
-    <mergeCell ref="HD2:HE2"/>
-    <mergeCell ref="HF2:HG2"/>
-    <mergeCell ref="HH2:HI2"/>
-    <mergeCell ref="GL2:GM2"/>
-    <mergeCell ref="GN2:GO2"/>
-    <mergeCell ref="GP2:GQ2"/>
-    <mergeCell ref="GR2:GS2"/>
-    <mergeCell ref="GT2:GU2"/>
-    <mergeCell ref="GV2:GW2"/>
-    <mergeCell ref="HV2:HW2"/>
-    <mergeCell ref="HX2:HY2"/>
-    <mergeCell ref="HZ2:IA2"/>
-    <mergeCell ref="IB2:IC2"/>
-    <mergeCell ref="ID2:IE2"/>
-    <mergeCell ref="IF2:IG2"/>
-    <mergeCell ref="HJ2:HK2"/>
-    <mergeCell ref="HL2:HM2"/>
-    <mergeCell ref="HN2:HO2"/>
-    <mergeCell ref="HP2:HQ2"/>
-    <mergeCell ref="HR2:HS2"/>
-    <mergeCell ref="HT2:HU2"/>
-    <mergeCell ref="IP35:IR35"/>
-    <mergeCell ref="IP36:IR36"/>
-    <mergeCell ref="IP37:IR37"/>
-    <mergeCell ref="IH2:II2"/>
-    <mergeCell ref="IJ2:IK2"/>
-    <mergeCell ref="IL2:IM2"/>
-    <mergeCell ref="IN2:IO2"/>
-    <mergeCell ref="IP2:IQ2"/>
-    <mergeCell ref="IP34:IR34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
